--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3046.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3046.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3046.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3046.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>15</v>
+        <v>0.5541968941688538</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>3.876787900924683</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.913495063781738</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>1.444257259368896</v>
       </c>
       <c r="E1">
-        <v>15</v>
+        <v>0.8451204299926758</v>
       </c>
     </row>
   </sheetData>
